--- a/conf/config.xlsx
+++ b/conf/config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\zhaoz\PycharmProjects\pythonProject\conf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EA1DAE3-A3D4-4E58-8055-7864098A4693}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2644777D-F56B-4776-8536-8B2E7E47FA55}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -118,10 +118,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>D:\Working\ViveBest\ProjectData\中国银行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>文件</t>
   </si>
   <si>
@@ -225,6 +221,10 @@
   </si>
   <si>
     <t>D:\Working\ViveBest\ProjectData\中国银行\自动化工具\自动化工具方案_V0.1.docx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D:\Working\ViveBest\ProjectData\中国银行\新建文件夹</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -572,42 +572,42 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -621,12 +621,12 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="43.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="71.08203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -639,18 +639,18 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -683,29 +683,29 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
         <v>16</v>
-      </c>
-      <c r="D1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -736,33 +736,33 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" t="s">
         <v>20</v>
-      </c>
-      <c r="B1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="42" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/conf/config.xlsx
+++ b/conf/config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\zhaoz\PycharmProjects\pythonProject\conf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2644777D-F56B-4776-8536-8B2E7E47FA55}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5180B195-0D57-44E8-812B-97B42E0F9989}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="baseparam" sheetId="3" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="formatcheck" sheetId="2" r:id="rId3"/>
     <sheet name="other" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -108,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="154">
   <si>
     <t>检查类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -225,6 +225,502 @@
   </si>
   <si>
     <t>D:\Working\ViveBest\ProjectData\中国银行\新建文件夹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>草拟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评估</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调整</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>协商</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建议</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接受</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同意</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分配</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审批</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>决定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>识别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拒绝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>过滤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>筛选</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>借入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>构建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>制定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>画图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>租赁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>租借</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>授权</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支持</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>颁布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建立</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>担保</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实施</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>启动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发起</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安装</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>集成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开立</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>告诫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>咨询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指导</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>维护</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>度量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>考核</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运营</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保护</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>监督</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>督办</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>监管</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>免除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>监控</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>监测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>捕获</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>承认</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>展期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冻结</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>访问</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇总</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>统计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>追加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平账</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>比较</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>核对</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>迁移</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>归档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对照</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>读取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存储</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通知</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发放</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>签发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提供</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打印</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>借款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>放弃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>终止</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>处置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卖出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分销</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结清</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>撤销</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;|baseparam!A2:A9999|&gt;%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D:\Working\ViveBest\ProjectData\中国银行\自动化检查.xlsx|A1:A9999</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -256,12 +752,54 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -276,12 +814,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -562,10 +1107,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AAE9486-8A06-4DD4-A08D-23EB7846B7A8}">
-  <dimension ref="A1:A8"/>
+  <dimension ref="A1:A132"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -576,38 +1121,658 @@
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A62" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A63" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A64" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67" s="7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71" s="7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A72" s="8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A73" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A74" s="8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A75" s="8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A76" s="9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A77" s="9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A105" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A106" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A107" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A108" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A109" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A110" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A111" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A112" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A113" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A114" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A115" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A116" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A117" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A118" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A119" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>14</v>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A120" s="4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A121" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A122" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A123" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A124" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A125" s="6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A126" s="6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A127" s="6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A128" s="6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A129" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A130" s="6" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A131" s="6" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A132" s="6" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -620,7 +1785,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -669,13 +1834,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C8FB0AB-B304-4286-B887-00EDB90B0E19}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.4140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.4140625" customWidth="1"/>
+    <col min="3" max="3" width="8.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -703,6 +1869,12 @@
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C3" t="s">
+        <v>153</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>18</v>
@@ -716,7 +1888,8 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/conf/config.xlsx
+++ b/conf/config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\zhaoz\PycharmProjects\pythonProject\conf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5180B195-0D57-44E8-812B-97B42E0F9989}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D5E65BB-B2C9-4813-8277-C5E0F29C7657}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -108,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="158">
   <si>
     <t>检查类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -720,7 +720,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>D:\Working\ViveBest\ProjectData\中国银行\自动化检查.xlsx|A1:A9999</t>
+    <t>D:\Working\ViveBest\ProjectData\中国银行\test\自动化检查.xlsx|0!B2:B9999</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;|baseparam!B2:B3|&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D:\Working\ViveBest\ProjectData\中国银行\test\自动化检查.xlsx|1!A2:A9999</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1107,90 +1123,96 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AAE9486-8A06-4DD4-A08D-23EB7846B7A8}">
-  <dimension ref="A1:A132"/>
+  <dimension ref="A1:B132"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>43</v>
       </c>
@@ -1778,6 +1800,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1832,16 +1855,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C8FB0AB-B304-4286-B887-00EDB90B0E19}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="38.4140625" customWidth="1"/>
-    <col min="3" max="3" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="64.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -1880,10 +1903,24 @@
         <v>18</v>
       </c>
     </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C4" t="s">
+        <v>157</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A3" xr:uid="{3E319A7A-8B0A-43E6-BB2D-E6ACD8D6133E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A4" xr:uid="{3E319A7A-8B0A-43E6-BB2D-E6ACD8D6133E}">
       <formula1>"文件名称,单元格值"</formula1>
     </dataValidation>
   </dataValidations>

--- a/conf/config.xlsx
+++ b/conf/config.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\zhaoz\PycharmProjects\pythonProject\conf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D5E65BB-B2C9-4813-8277-C5E0F29C7657}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D496838-DD2F-411D-BF3D-4D920FD2CE4B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="baseparam" sheetId="3" r:id="rId1"/>
     <sheet name="existcheck" sheetId="1" r:id="rId2"/>
     <sheet name="formatcheck" sheetId="2" r:id="rId3"/>
-    <sheet name="other" sheetId="4" r:id="rId4"/>
+    <sheet name="other_five" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -108,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="162">
   <si>
     <t>检查类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -738,6 +738,21 @@
   <si>
     <t>D:\Working\ViveBest\ProjectData\中国银行\test\自动化检查.xlsx|1!A2:A9999</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L5TaskDesc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D:\Working\ViveBest\ProjectData\中国银行\test\自动化检查.xlsx|1!A2:A9999</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D:\Working\ViveBest\ProjectData\中国银行\test\自动化检查.xlsx|1!C2:C9999,D2:D9999</t>
   </si>
 </sst>
 </file>
@@ -1857,7 +1872,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C8FB0AB-B304-4286-B887-00EDB90B0E19}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -1920,8 +1935,8 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A4" xr:uid="{3E319A7A-8B0A-43E6-BB2D-E6ACD8D6133E}">
-      <formula1>"文件名称,单元格值"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A4" xr:uid="{ECD4B1E3-BED3-4808-BDED-1A931CBF684A}">
+      <formula1>"文件名称,单元格值,必填关联"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1932,10 +1947,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68C6731E-D2F3-4696-A4B2-C3719897CCE5}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1975,6 +1990,21 @@
         <v>27</v>
       </c>
     </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D3" t="s">
+        <v>161</v>
+      </c>
+      <c r="G3" s="2"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/conf/config.xlsx
+++ b/conf/config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\zhaoz\PycharmProjects\pythonProject\conf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D496838-DD2F-411D-BF3D-4D920FD2CE4B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBADB9E3-4C60-4992-AA68-C105995F0328}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -752,7 +752,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>D:\Working\ViveBest\ProjectData\中国银行\test\自动化检查.xlsx|1!C2:C9999,D2:D9999</t>
+    <t>1!C2:C9999,D2:D9999</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1949,13 +1950,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68C6731E-D2F3-4696-A4B2-C3719897CCE5}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="65.08203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="74" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="40.9140625" customWidth="1"/>
   </cols>
   <sheetData>
